--- a/attached_assets/KLG_Projects_1769167456131.xlsx
+++ b/attached_assets/KLG_Projects_1769167456131.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raj/Documents/kaplan/IT-Project-Insights/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8698D5B-3524-024C-8D85-AFD28847C70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE56FB-560E-E349-B238-FA7B6CCEA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{EA85AA0E-B53E-0449-8B03-53BBFAE6EA25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="99">
   <si>
     <t>Year</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Kaplan Online School AI Solution for Grammar </t>
+  </si>
+  <si>
+    <t>AI Initiatives</t>
   </si>
 </sst>
 </file>
@@ -729,11 +732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5916C0-33CA-1441-811F-786D190ABC6D}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -2183,7 +2190,7 @@
         <v>28</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>74</v>
@@ -2206,7 +2213,7 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>74</v>
@@ -2229,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>74</v>
